--- a/Tv_restringida_N.xlsx
+++ b/Tv_restringida_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17BD153-CAF3-4492-A52F-3CFB28462E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5319F3AC-9679-47B8-BAA3-B165CEBAF03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>Total</t>
   </si>
@@ -72,6 +72,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
   </si>
 </sst>
 </file>
@@ -330,19 +366,10 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -357,11 +384,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -410,6 +446,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -417,12 +459,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -478,7 +514,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H77" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H77" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B5:H77" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -755,13 +791,13 @@
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
@@ -787,10 +823,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>2023</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="7">
@@ -812,11 +848,11 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="32">
+      <c r="B7" s="29">
         <v>2023</v>
       </c>
-      <c r="C7" s="33">
-        <v>11</v>
+      <c r="C7" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -837,11 +873,11 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>2023</v>
       </c>
-      <c r="C8" s="31">
-        <v>10</v>
+      <c r="C8" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -862,11 +898,11 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <v>2023</v>
       </c>
-      <c r="C9" s="33">
-        <v>9</v>
+      <c r="C9" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -887,11 +923,11 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="30">
+      <c r="B10" s="27">
         <v>2023</v>
       </c>
-      <c r="C10" s="31">
-        <v>8</v>
+      <c r="C10" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -912,11 +948,11 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="32">
+      <c r="B11" s="29">
         <v>2023</v>
       </c>
-      <c r="C11" s="33">
-        <v>7</v>
+      <c r="C11" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -937,11 +973,11 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>2023</v>
       </c>
-      <c r="C12" s="31">
-        <v>6</v>
+      <c r="C12" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -962,11 +998,11 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <v>2023</v>
       </c>
-      <c r="C13" s="33">
-        <v>5</v>
+      <c r="C13" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -987,11 +1023,11 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <v>2023</v>
       </c>
-      <c r="C14" s="31">
-        <v>4</v>
+      <c r="C14" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1012,11 +1048,11 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <v>2023</v>
       </c>
-      <c r="C15" s="33">
-        <v>3</v>
+      <c r="C15" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1037,11 +1073,11 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <v>2023</v>
       </c>
-      <c r="C16" s="31">
-        <v>2</v>
+      <c r="C16" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1062,11 +1098,11 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="34">
+      <c r="B17" s="31">
         <v>2023</v>
       </c>
-      <c r="C17" s="35">
-        <v>1</v>
+      <c r="C17" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1087,10 +1123,10 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="36">
+      <c r="B18" s="33">
         <v>2022</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="16">
@@ -1110,11 +1146,11 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32">
+      <c r="B19" s="29">
         <v>2022</v>
       </c>
-      <c r="C19" s="33">
-        <v>11</v>
+      <c r="C19" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D19" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1133,11 +1169,11 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>2022</v>
       </c>
-      <c r="C20" s="31">
-        <v>10</v>
+      <c r="C20" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1156,11 +1192,11 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="32">
+      <c r="B21" s="29">
         <v>2022</v>
       </c>
-      <c r="C21" s="33">
-        <v>9</v>
+      <c r="C21" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1179,11 +1215,11 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="30">
+      <c r="B22" s="27">
         <v>2022</v>
       </c>
-      <c r="C22" s="31">
-        <v>8</v>
+      <c r="C22" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1202,11 +1238,11 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="32">
+      <c r="B23" s="29">
         <v>2022</v>
       </c>
-      <c r="C23" s="33">
-        <v>7</v>
+      <c r="C23" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D23" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1225,11 +1261,11 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="30">
+      <c r="B24" s="27">
         <v>2022</v>
       </c>
-      <c r="C24" s="31">
-        <v>6</v>
+      <c r="C24" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1250,11 +1286,11 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32">
+      <c r="B25" s="29">
         <v>2022</v>
       </c>
-      <c r="C25" s="33">
-        <v>5</v>
+      <c r="C25" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1275,11 +1311,11 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <v>2022</v>
       </c>
-      <c r="C26" s="31">
-        <v>4</v>
+      <c r="C26" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1300,11 +1336,11 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="32">
+      <c r="B27" s="29">
         <v>2022</v>
       </c>
-      <c r="C27" s="33">
-        <v>3</v>
+      <c r="C27" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D27" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1325,11 +1361,11 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="30">
+      <c r="B28" s="27">
         <v>2022</v>
       </c>
-      <c r="C28" s="31">
-        <v>2</v>
+      <c r="C28" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D28" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1350,11 +1386,11 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34">
+      <c r="B29" s="31">
         <v>2022</v>
       </c>
-      <c r="C29" s="35">
-        <v>1</v>
+      <c r="C29" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1375,10 +1411,10 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="36">
+      <c r="B30" s="33">
         <v>2021</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="16">
@@ -1400,11 +1436,11 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="32">
+      <c r="B31" s="29">
         <v>2021</v>
       </c>
-      <c r="C31" s="33">
-        <v>11</v>
+      <c r="C31" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D31" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1425,11 +1461,11 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="30">
+      <c r="B32" s="27">
         <v>2021</v>
       </c>
-      <c r="C32" s="31">
-        <v>10</v>
+      <c r="C32" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D32" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1450,11 +1486,11 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="32">
+      <c r="B33" s="29">
         <v>2021</v>
       </c>
-      <c r="C33" s="33">
-        <v>9</v>
+      <c r="C33" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D33" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1475,11 +1511,11 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="30">
+      <c r="B34" s="27">
         <v>2021</v>
       </c>
-      <c r="C34" s="31">
-        <v>8</v>
+      <c r="C34" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="D34" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1500,11 +1536,11 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="32">
+      <c r="B35" s="29">
         <v>2021</v>
       </c>
-      <c r="C35" s="33">
-        <v>7</v>
+      <c r="C35" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1525,11 +1561,11 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="30">
+      <c r="B36" s="27">
         <v>2021</v>
       </c>
-      <c r="C36" s="31">
-        <v>6</v>
+      <c r="C36" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1550,11 +1586,11 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="32">
+      <c r="B37" s="29">
         <v>2021</v>
       </c>
-      <c r="C37" s="33">
-        <v>5</v>
+      <c r="C37" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D37" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1575,11 +1611,11 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="30">
+      <c r="B38" s="27">
         <v>2021</v>
       </c>
-      <c r="C38" s="31">
-        <v>4</v>
+      <c r="C38" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D38" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1600,11 +1636,11 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="32">
+      <c r="B39" s="29">
         <v>2021</v>
       </c>
-      <c r="C39" s="33">
-        <v>3</v>
+      <c r="C39" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D39" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1625,11 +1661,11 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="30">
+      <c r="B40" s="27">
         <v>2021</v>
       </c>
-      <c r="C40" s="31">
-        <v>2</v>
+      <c r="C40" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D40" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1650,11 +1686,11 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="34">
+      <c r="B41" s="31">
         <v>2021</v>
       </c>
-      <c r="C41" s="35">
-        <v>1</v>
+      <c r="C41" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="D41" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1675,10 +1711,10 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="36">
+      <c r="B42" s="33">
         <v>2020</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="16">
@@ -1700,11 +1736,11 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="32">
+      <c r="B43" s="29">
         <v>2020</v>
       </c>
-      <c r="C43" s="33">
-        <v>11</v>
+      <c r="C43" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D43" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1725,11 +1761,11 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="30">
+      <c r="B44" s="27">
         <v>2020</v>
       </c>
-      <c r="C44" s="31">
-        <v>10</v>
+      <c r="C44" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D44" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1750,11 +1786,11 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="32">
+      <c r="B45" s="29">
         <v>2020</v>
       </c>
-      <c r="C45" s="33">
-        <v>9</v>
+      <c r="C45" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D45" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1775,11 +1811,11 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="30">
+      <c r="B46" s="27">
         <v>2020</v>
       </c>
-      <c r="C46" s="31">
-        <v>8</v>
+      <c r="C46" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="D46" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1800,11 +1836,11 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="32">
+      <c r="B47" s="29">
         <v>2020</v>
       </c>
-      <c r="C47" s="33">
-        <v>7</v>
+      <c r="C47" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D47" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1825,11 +1861,11 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="30">
+      <c r="B48" s="27">
         <v>2020</v>
       </c>
-      <c r="C48" s="31">
-        <v>6</v>
+      <c r="C48" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D48" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1850,11 +1886,11 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="32">
+      <c r="B49" s="29">
         <v>2020</v>
       </c>
-      <c r="C49" s="33">
-        <v>5</v>
+      <c r="C49" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D49" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1875,11 +1911,11 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>2020</v>
       </c>
-      <c r="C50" s="31">
-        <v>4</v>
+      <c r="C50" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D50" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1900,11 +1936,11 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="32">
+      <c r="B51" s="29">
         <v>2020</v>
       </c>
-      <c r="C51" s="33">
-        <v>3</v>
+      <c r="C51" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D51" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1925,11 +1961,11 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="30">
+      <c r="B52" s="27">
         <v>2020</v>
       </c>
-      <c r="C52" s="31">
-        <v>2</v>
+      <c r="C52" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D52" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1950,11 +1986,11 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="34">
+      <c r="B53" s="31">
         <v>2020</v>
       </c>
-      <c r="C53" s="35">
-        <v>1</v>
+      <c r="C53" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="D53" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1975,10 +2011,10 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="36">
+      <c r="B54" s="33">
         <v>2019</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="16">
@@ -2000,11 +2036,11 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="32">
+      <c r="B55" s="29">
         <v>2019</v>
       </c>
-      <c r="C55" s="33">
-        <v>11</v>
+      <c r="C55" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D55" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2025,11 +2061,11 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="30">
+      <c r="B56" s="27">
         <v>2019</v>
       </c>
-      <c r="C56" s="31">
-        <v>10</v>
+      <c r="C56" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D56" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2050,11 +2086,11 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="32">
+      <c r="B57" s="29">
         <v>2019</v>
       </c>
-      <c r="C57" s="33">
-        <v>9</v>
+      <c r="C57" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D57" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2075,11 +2111,11 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="30">
+      <c r="B58" s="27">
         <v>2019</v>
       </c>
-      <c r="C58" s="31">
-        <v>8</v>
+      <c r="C58" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="D58" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2100,11 +2136,11 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="32">
+      <c r="B59" s="29">
         <v>2019</v>
       </c>
-      <c r="C59" s="33">
-        <v>7</v>
+      <c r="C59" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D59" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2125,11 +2161,11 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="30">
+      <c r="B60" s="27">
         <v>2019</v>
       </c>
-      <c r="C60" s="31">
-        <v>6</v>
+      <c r="C60" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D60" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2150,11 +2186,11 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="32">
+      <c r="B61" s="29">
         <v>2019</v>
       </c>
-      <c r="C61" s="33">
-        <v>5</v>
+      <c r="C61" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D61" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2175,11 +2211,11 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="30">
+      <c r="B62" s="27">
         <v>2019</v>
       </c>
-      <c r="C62" s="31">
-        <v>4</v>
+      <c r="C62" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D62" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2200,11 +2236,11 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="32">
+      <c r="B63" s="29">
         <v>2019</v>
       </c>
-      <c r="C63" s="33">
-        <v>3</v>
+      <c r="C63" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D63" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2225,11 +2261,11 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="30">
+      <c r="B64" s="27">
         <v>2019</v>
       </c>
-      <c r="C64" s="31">
-        <v>2</v>
+      <c r="C64" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D64" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2250,11 +2286,11 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="34">
+      <c r="B65" s="31">
         <v>2019</v>
       </c>
-      <c r="C65" s="35">
-        <v>1</v>
+      <c r="C65" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="D65" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2275,10 +2311,10 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="30">
+      <c r="B66" s="27">
         <v>2018</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="7">
@@ -2300,11 +2336,11 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="32">
+      <c r="B67" s="29">
         <v>2018</v>
       </c>
-      <c r="C67" s="33">
-        <v>11</v>
+      <c r="C67" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D67" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2325,11 +2361,11 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="30">
+      <c r="B68" s="27">
         <v>2018</v>
       </c>
-      <c r="C68" s="31">
-        <v>10</v>
+      <c r="C68" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D68" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2350,11 +2386,11 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="32">
+      <c r="B69" s="29">
         <v>2018</v>
       </c>
-      <c r="C69" s="33">
-        <v>9</v>
+      <c r="C69" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="D69" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2375,11 +2411,11 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="30">
+      <c r="B70" s="27">
         <v>2018</v>
       </c>
-      <c r="C70" s="31">
-        <v>8</v>
+      <c r="C70" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="D70" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2400,11 +2436,11 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="32">
+      <c r="B71" s="29">
         <v>2018</v>
       </c>
-      <c r="C71" s="33">
-        <v>7</v>
+      <c r="C71" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D71" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2425,11 +2461,11 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="30">
+      <c r="B72" s="27">
         <v>2018</v>
       </c>
-      <c r="C72" s="31">
-        <v>6</v>
+      <c r="C72" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D72" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2450,11 +2486,11 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="32">
+      <c r="B73" s="29">
         <v>2018</v>
       </c>
-      <c r="C73" s="33">
-        <v>5</v>
+      <c r="C73" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D73" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2475,11 +2511,11 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="30">
+      <c r="B74" s="27">
         <v>2018</v>
       </c>
-      <c r="C74" s="31">
-        <v>4</v>
+      <c r="C74" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D74" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2500,11 +2536,11 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="32">
+      <c r="B75" s="29">
         <v>2018</v>
       </c>
-      <c r="C75" s="33">
-        <v>3</v>
+      <c r="C75" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D75" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2525,11 +2561,11 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="30">
+      <c r="B76" s="27">
         <v>2018</v>
       </c>
-      <c r="C76" s="31">
-        <v>2</v>
+      <c r="C76" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D76" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2549,11 +2585,11 @@
       </c>
     </row>
     <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="32">
+      <c r="B77" s="29">
         <v>2018</v>
       </c>
-      <c r="C77" s="33">
-        <v>1</v>
+      <c r="C77" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D77" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>

--- a/Tv_restringida_N.xlsx
+++ b/Tv_restringida_N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5319F3AC-9679-47B8-BAA3-B165CEBAF03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C7C5F-E628-4022-9606-CC6E8D276777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Televisión restringida</t>
   </si>
   <si>
-    <t>Accesos del servicio de televisión restringida</t>
-  </si>
-  <si>
     <t>Servicio fijo por satélite</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>Actualización: agosto 2024.</t>
   </si>
   <si>
     <t>Dic.</t>
@@ -109,6 +103,12 @@
   <si>
     <t>Ene.</t>
   </si>
+  <si>
+    <t>Actualización: Agosto 2024.</t>
+  </si>
+  <si>
+    <t>Servicio de televisión restringida</t>
+  </si>
 </sst>
 </file>
 
@@ -118,40 +118,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,13 +159,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -430,7 +430,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -477,7 +477,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -540,7 +540,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -548,28 +548,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -578,14 +578,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -762,33 +762,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="35" t="s">
@@ -799,21 +798,21 @@
       <c r="G4" s="36"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>8</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>3</v>
@@ -822,12 +821,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <v>2023</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -847,12 +846,12 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="29">
         <v>2023</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -872,12 +871,12 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>2023</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -897,12 +896,12 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="29">
         <v>2023</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -922,12 +921,12 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>2023</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -947,12 +946,12 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="29">
         <v>2023</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -972,12 +971,12 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>2023</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -997,12 +996,12 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="29">
         <v>2023</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1022,12 +1021,12 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>2023</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1047,12 +1046,12 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="29">
         <v>2023</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1072,12 +1071,12 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>2023</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1097,12 +1096,12 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="31">
         <v>2023</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1122,12 +1121,12 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33">
         <v>2022</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1145,12 +1144,12 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="29">
         <v>2022</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1168,12 +1167,12 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>2022</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1191,12 +1190,12 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29">
         <v>2022</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1214,12 +1213,12 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>2022</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1237,12 +1236,12 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>2022</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1260,12 +1259,12 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>2022</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1285,12 +1284,12 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="29">
         <v>2022</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1310,12 +1309,12 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>2022</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1335,12 +1334,12 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
         <v>2022</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1360,12 +1359,12 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>2022</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1385,12 +1384,12 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31">
         <v>2022</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1410,12 +1409,12 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="33">
         <v>2021</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1435,12 +1434,12 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="29">
         <v>2021</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1460,12 +1459,12 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <v>2021</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1485,12 +1484,12 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="29">
         <v>2021</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1510,12 +1509,12 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <v>2021</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1535,12 +1534,12 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="29">
         <v>2021</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1560,12 +1559,12 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <v>2021</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1585,12 +1584,12 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="29">
         <v>2021</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1610,12 +1609,12 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <v>2021</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1635,12 +1634,12 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="29">
         <v>2021</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1660,12 +1659,12 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <v>2021</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1685,12 +1684,12 @@
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="31">
         <v>2021</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1710,12 +1709,12 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33">
         <v>2020</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1735,12 +1734,12 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="29">
         <v>2020</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1760,12 +1759,12 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27">
         <v>2020</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1785,12 +1784,12 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="29">
         <v>2020</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1810,12 +1809,12 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27">
         <v>2020</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1835,12 +1834,12 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="29">
         <v>2020</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1860,12 +1859,12 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27">
         <v>2020</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1885,12 +1884,12 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="29">
         <v>2020</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1910,12 +1909,12 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27">
         <v>2020</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1935,12 +1934,12 @@
       </c>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="29">
         <v>2020</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1960,12 +1959,12 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27">
         <v>2020</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -1985,12 +1984,12 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31">
         <v>2020</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D53" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2010,12 +2009,12 @@
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="33">
         <v>2019</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2035,12 +2034,12 @@
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="29">
         <v>2019</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2060,12 +2059,12 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="27">
         <v>2019</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D56" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2085,12 +2084,12 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="29">
         <v>2019</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2110,12 +2109,12 @@
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="27">
         <v>2019</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2135,12 +2134,12 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="29">
         <v>2019</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2160,12 +2159,12 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="27">
         <v>2019</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2185,12 +2184,12 @@
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="29">
         <v>2019</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2210,12 +2209,12 @@
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="27">
         <v>2019</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2235,12 +2234,12 @@
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="29">
         <v>2019</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2260,12 +2259,12 @@
       </c>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="27">
         <v>2019</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2285,12 +2284,12 @@
       </c>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="31">
         <v>2019</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" s="13">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2310,12 +2309,12 @@
       </c>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="27">
         <v>2018</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2335,12 +2334,12 @@
       </c>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="29">
         <v>2018</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D67" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2360,12 +2359,12 @@
       </c>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="27">
         <v>2018</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D68" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2385,12 +2384,12 @@
       </c>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="29">
         <v>2018</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2410,12 +2409,12 @@
       </c>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="27">
         <v>2018</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2435,12 +2434,12 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="29">
         <v>2018</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2460,12 +2459,12 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="27">
         <v>2018</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2485,12 +2484,12 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="29">
         <v>2018</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2510,12 +2509,12 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="27">
         <v>2018</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2535,12 +2534,12 @@
       </c>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="29">
         <v>2018</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2560,12 +2559,12 @@
       </c>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
         <v>2018</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D76" s="7">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2584,12 +2583,12 @@
         <v>178805</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="29">
         <v>2018</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77" s="10">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
@@ -2608,9 +2607,9 @@
         <v>179660</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="20"/>
@@ -2619,17 +2618,17 @@
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" s="3"/>
     </row>
   </sheetData>

--- a/Tv_restringida_N.xlsx
+++ b/Tv_restringida_N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C7C5F-E628-4022-9606-CC6E8D276777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003EF19A-9113-44F6-BCE4-8EBF73DD61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_45.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>Total</t>
   </si>
@@ -104,36 +104,26 @@
     <t>Ene.</t>
   </si>
   <si>
-    <t>Actualización: Agosto 2024.</t>
+    <t>Servicio de televisión restringida</t>
   </si>
   <si>
-    <t>Servicio de televisión restringida</t>
+    <t>Actualización: Noviembre 2024.</t>
+  </si>
+  <si>
+    <t>Penetración del servicio de televisión restringida (Líneas p/c 100 hogares)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -149,24 +139,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -316,44 +316,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -363,32 +345,45 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,17 +399,75 @@
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -430,17 +483,41 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -456,6 +533,19 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -477,9 +567,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -514,24 +605,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H77" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="B5:H77" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I83" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="B5:I83" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{59BB152B-27F4-48EB-86C8-4B1810237C7A}" name="Mes" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="4">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{59BB152B-27F4-48EB-86C8-4B1810237C7A}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Servicio fijo por satélite" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Servicio por cable coaxial" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4AE8D212-11D1-4F4B-800F-8B1D6411D96E}" name="IPTV terrestre" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{126D5D05-E557-43E1-95F2-B32D88C933EF}" name="Sin información de tecnología" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Servicio fijo por satélite" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Servicio por cable coaxial" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4AE8D212-11D1-4F4B-800F-8B1D6411D96E}" name="IPTV terrestre" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{126D5D05-E557-43E1-95F2-B32D88C933EF}" name="Sin información de tecnología" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{1FCE0E92-5551-4B73-8DC4-2416C9BAA805}" name="Penetración del servicio de televisión restringida (Líneas p/c 100 hogares)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,1882 +853,2196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I81"/>
+  <dimension ref="B2:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:9" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>21847575</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7407431</v>
+      </c>
+      <c r="F6" s="13">
+        <v>11898573</v>
+      </c>
+      <c r="G6" s="13">
+        <v>2539106</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2465</v>
+      </c>
+      <c r="I6" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>21929922</v>
+      </c>
+      <c r="E7" s="17">
+        <v>7502439</v>
+      </c>
+      <c r="F7" s="17">
+        <v>11874805</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2550280</v>
+      </c>
+      <c r="H7" s="17">
+        <v>2398</v>
+      </c>
+      <c r="I7" s="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>22050223</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7555675</v>
+      </c>
+      <c r="F8" s="13">
+        <v>11936724</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2555074</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2750</v>
+      </c>
+      <c r="I8" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>22311381</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1492938</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12441302</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2557349</v>
+      </c>
+      <c r="H9" s="17">
+        <v>5819792</v>
+      </c>
+      <c r="I9" s="17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>22418380</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1528129</v>
+      </c>
+      <c r="F10" s="13">
+        <v>12462527</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2543406</v>
+      </c>
+      <c r="H10" s="13">
+        <v>5884318</v>
+      </c>
+      <c r="I10" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>22877590</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1493246</v>
+      </c>
+      <c r="F11" s="21">
+        <v>12502254</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2541330</v>
+      </c>
+      <c r="H11" s="21">
+        <v>6340760</v>
+      </c>
+      <c r="I11" s="21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2023</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>28497910</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D12" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23485338</v>
+      </c>
+      <c r="E12" s="13">
         <v>7893799</v>
       </c>
-      <c r="F6" s="9">
-        <v>17623899</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F12" s="13">
+        <v>12511252</v>
+      </c>
+      <c r="G12" s="13">
         <v>2542310</v>
       </c>
-      <c r="H6" s="9">
-        <v>437902</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+      <c r="H12" s="13">
+        <v>537977</v>
+      </c>
+      <c r="I12" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
         <v>2023</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>28512334</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D13" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23530639</v>
+      </c>
+      <c r="E13" s="17">
         <v>7964192</v>
       </c>
-      <c r="F7" s="12">
-        <v>17581165</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F13" s="17">
+        <v>12500843</v>
+      </c>
+      <c r="G13" s="17">
         <v>2543528</v>
       </c>
-      <c r="H7" s="12">
-        <v>423449</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="27">
+      <c r="H13" s="17">
+        <v>522076</v>
+      </c>
+      <c r="I13" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2023</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>28613894</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D14" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23631509</v>
+      </c>
+      <c r="E14" s="13">
         <v>8033223</v>
       </c>
-      <c r="F8" s="9">
-        <v>17610594</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F14" s="13">
+        <v>12529734</v>
+      </c>
+      <c r="G14" s="13">
         <v>2548773</v>
       </c>
-      <c r="H8" s="9">
-        <v>421304</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="H14" s="13">
+        <v>519779</v>
+      </c>
+      <c r="I14" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
         <v>2023</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>23518817</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D15" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23617951</v>
+      </c>
+      <c r="E15" s="17">
         <v>7952915</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F15" s="17">
         <v>12589321</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G15" s="17">
         <v>2555909</v>
       </c>
-      <c r="H9" s="12">
-        <v>420672</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="27">
+      <c r="H15" s="17">
+        <v>519806</v>
+      </c>
+      <c r="I15" s="17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2023</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>23803631</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D16" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23902489</v>
+      </c>
+      <c r="E16" s="13">
         <v>7899193</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F16" s="13">
         <v>12909994</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G16" s="13">
         <v>2560103</v>
       </c>
-      <c r="H10" s="9">
-        <v>434341</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="29">
+      <c r="H16" s="13">
+        <v>533199</v>
+      </c>
+      <c r="I16" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>23799567</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D17" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23898824</v>
+      </c>
+      <c r="E17" s="17">
         <v>7827635</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F17" s="17">
         <v>12973460</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G17" s="17">
         <v>2569983</v>
       </c>
-      <c r="H11" s="12">
-        <v>428489</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="27">
+      <c r="H17" s="17">
+        <v>527746</v>
+      </c>
+      <c r="I17" s="17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
         <v>2023</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24379797</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D18" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24479288</v>
+      </c>
+      <c r="E18" s="13">
         <v>8365061</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F18" s="13">
         <v>13024203</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G18" s="13">
         <v>2576424</v>
       </c>
-      <c r="H12" s="9">
-        <v>414109</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="29">
+      <c r="H18" s="13">
+        <v>513600</v>
+      </c>
+      <c r="I18" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24445933</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D19" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24545546</v>
+      </c>
+      <c r="E19" s="17">
         <v>8419965</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F19" s="17">
         <v>13032084</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G19" s="17">
         <v>2576639</v>
       </c>
-      <c r="H13" s="12">
-        <v>417245</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="27">
+      <c r="H19" s="17">
+        <v>516858</v>
+      </c>
+      <c r="I19" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24531800</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D20" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24631344</v>
+      </c>
+      <c r="E20" s="13">
         <v>8476512</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F20" s="13">
         <v>13057025</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G20" s="13">
         <v>2567936</v>
       </c>
-      <c r="H14" s="9">
-        <v>430327</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="29">
+      <c r="H20" s="13">
+        <v>529871</v>
+      </c>
+      <c r="I20" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>23534730</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D21" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23986540</v>
+      </c>
+      <c r="E21" s="17">
         <v>8566877</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F21" s="17">
         <v>12301251</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G21" s="17">
         <v>2567976</v>
       </c>
-      <c r="H15" s="12">
-        <v>98626</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+      <c r="H21" s="17">
+        <v>550436</v>
+      </c>
+      <c r="I21" s="17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>23521542</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D22" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>23961849</v>
+      </c>
+      <c r="E22" s="13">
         <v>8619417</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F22" s="13">
         <v>12243306</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G22" s="13">
         <v>2560495</v>
       </c>
-      <c r="H16" s="9">
-        <v>98324</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="31">
+      <c r="H22" s="13">
+        <v>538631</v>
+      </c>
+      <c r="I22" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="18">
         <v>2023</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="13">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>23579971</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D23" s="20">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24009214</v>
+      </c>
+      <c r="E23" s="21">
         <v>8639915</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F23" s="21">
         <v>12281589</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G23" s="21">
         <v>2560958</v>
       </c>
-      <c r="H17" s="15">
-        <v>97509</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="H23" s="21">
+        <v>526752</v>
+      </c>
+      <c r="I23" s="21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="22">
         <v>2022</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24508199</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D24" s="24">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24675646</v>
+      </c>
+      <c r="E24" s="25">
         <v>8752449</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F24" s="25">
         <v>12789835</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18">
-        <v>2965915</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25">
+        <v>3133362</v>
+      </c>
+      <c r="I24" s="25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
         <v>2022</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24603304</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D25" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24771140</v>
+      </c>
+      <c r="E25" s="17">
         <v>8900593</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F25" s="17">
         <v>12751841</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <v>2950870</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17">
+        <v>3118706</v>
+      </c>
+      <c r="I25" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2022</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24665296</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D26" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24832948</v>
+      </c>
+      <c r="E26" s="13">
         <v>8989803</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F26" s="13">
         <v>12740914</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
-        <v>2934579</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13">
+        <v>3102231</v>
+      </c>
+      <c r="I26" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
         <v>2022</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25047110</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D27" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25214987</v>
+      </c>
+      <c r="E27" s="17">
         <v>9078995</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F27" s="17">
         <v>13056045</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <v>2912070</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17">
+        <v>3079947</v>
+      </c>
+      <c r="I27" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2022</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25156075</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D28" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25324880</v>
+      </c>
+      <c r="E28" s="13">
         <v>9249817</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F28" s="13">
         <v>13014911</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
-        <v>2891347</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13">
+        <v>3060152</v>
+      </c>
+      <c r="I28" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25321212</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D29" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25489758</v>
+      </c>
+      <c r="E29" s="17">
         <v>9476153</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F29" s="17">
         <v>13012930</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <v>2832129</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17">
+        <v>3000675</v>
+      </c>
+      <c r="I29" s="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24801457</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D30" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>24968971</v>
+      </c>
+      <c r="E30" s="13">
         <v>9745316</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F30" s="13">
         <v>12271703</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G30" s="13">
         <v>2406118</v>
       </c>
-      <c r="H24" s="9">
-        <v>378320</v>
-      </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29">
+      <c r="H30" s="13">
+        <v>545834</v>
+      </c>
+      <c r="I30" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24888090</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D31" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25057224</v>
+      </c>
+      <c r="E31" s="17">
         <v>9875528</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F31" s="17">
         <v>12258211</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G31" s="17">
         <v>2373959</v>
       </c>
-      <c r="H25" s="12">
-        <v>380392</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27">
+      <c r="H31" s="17">
+        <v>549526</v>
+      </c>
+      <c r="I31" s="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>24963964</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D32" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25131467</v>
+      </c>
+      <c r="E32" s="13">
         <v>9977801</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F32" s="13">
         <v>12247253</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G32" s="13">
         <v>2341403</v>
       </c>
-      <c r="H26" s="9">
-        <v>397507</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29">
+      <c r="H32" s="13">
+        <v>565010</v>
+      </c>
+      <c r="I32" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25339895</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="D33" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25505010</v>
+      </c>
+      <c r="E33" s="17">
         <v>10101909</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F33" s="17">
         <v>12502902</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G33" s="17">
         <v>2315541</v>
       </c>
-      <c r="H27" s="12">
-        <v>419543</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27">
+      <c r="H33" s="17">
+        <v>584658</v>
+      </c>
+      <c r="I33" s="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25309611</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D34" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25475169</v>
+      </c>
+      <c r="E34" s="13">
         <v>10215460</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F34" s="13">
         <v>12410111</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G34" s="13">
         <v>2274482</v>
       </c>
-      <c r="H28" s="9">
-        <v>409558</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31">
+      <c r="H34" s="13">
+        <v>575116</v>
+      </c>
+      <c r="I34" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="18">
         <v>2022</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="13">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25341134</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D35" s="20">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25506917</v>
+      </c>
+      <c r="E35" s="21">
         <v>10302453</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F35" s="21">
         <v>12407108</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G35" s="21">
         <v>2233903</v>
       </c>
-      <c r="H29" s="15">
-        <v>397670</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="33">
+      <c r="H35" s="21">
+        <v>563453</v>
+      </c>
+      <c r="I35" s="21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="22">
         <v>2021</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C36" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="16">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25203097</v>
-      </c>
-      <c r="E30" s="17">
+      <c r="D36" s="24">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25268212</v>
+      </c>
+      <c r="E36" s="25">
         <v>10391116</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F36" s="25">
         <v>12384312</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G36" s="25">
         <v>2193267</v>
       </c>
-      <c r="H30" s="18">
-        <v>234402</v>
-      </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="29">
+      <c r="H36" s="25">
+        <v>299517</v>
+      </c>
+      <c r="I36" s="25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14">
         <v>2021</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25173644</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="D37" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25237458</v>
+      </c>
+      <c r="E37" s="17">
         <v>10455417</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F37" s="17">
         <v>12339549</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G37" s="17">
         <v>2143699</v>
       </c>
-      <c r="H31" s="12">
-        <v>234979</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27">
+      <c r="H37" s="17">
+        <v>298793</v>
+      </c>
+      <c r="I37" s="17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2021</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25197908</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="D38" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25261553</v>
+      </c>
+      <c r="E38" s="13">
         <v>10513093</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F38" s="13">
         <v>12352716</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G38" s="13">
         <v>2097260</v>
       </c>
-      <c r="H32" s="9">
-        <v>234839</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="29">
+      <c r="H38" s="13">
+        <v>298484</v>
+      </c>
+      <c r="I38" s="13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14">
         <v>2021</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25390032</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="D39" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25452361</v>
+      </c>
+      <c r="E39" s="17">
         <v>10667106</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F39" s="17">
         <v>12429790</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G39" s="17">
         <v>2059858</v>
       </c>
-      <c r="H33" s="12">
-        <v>233278</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27">
+      <c r="H39" s="17">
+        <v>295607</v>
+      </c>
+      <c r="I39" s="17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2021</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25509648</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D40" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25572096</v>
+      </c>
+      <c r="E40" s="13">
         <v>10777538</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F40" s="13">
         <v>12489750</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G40" s="13">
         <v>2006869</v>
       </c>
-      <c r="H34" s="9">
-        <v>235491</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29">
+      <c r="H40" s="13">
+        <v>297939</v>
+      </c>
+      <c r="I40" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25621936</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="D41" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25684356</v>
+      </c>
+      <c r="E41" s="17">
         <v>10861822</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F41" s="17">
         <v>12559998</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G41" s="17">
         <v>1967364</v>
       </c>
-      <c r="H35" s="12">
-        <v>232752</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27">
+      <c r="H41" s="17">
+        <v>295172</v>
+      </c>
+      <c r="I41" s="17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25698814</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="D42" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25761459</v>
+      </c>
+      <c r="E42" s="13">
         <v>10934089</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F42" s="13">
         <v>12614067</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G42" s="13">
         <v>1915698</v>
       </c>
-      <c r="H36" s="9">
-        <v>234960</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="29">
+      <c r="H42" s="13">
+        <v>297605</v>
+      </c>
+      <c r="I42" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25746627</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="D43" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25809603</v>
+      </c>
+      <c r="E43" s="17">
         <v>10970970</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F43" s="17">
         <v>12665043</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G43" s="17">
         <v>1877176</v>
       </c>
-      <c r="H37" s="12">
-        <v>233438</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="27">
+      <c r="H43" s="17">
+        <v>296414</v>
+      </c>
+      <c r="I43" s="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25828673</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="D44" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25891848</v>
+      </c>
+      <c r="E44" s="13">
         <v>11030211</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F44" s="13">
         <v>12731700</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G44" s="13">
         <v>1832783</v>
       </c>
-      <c r="H38" s="9">
-        <v>233979</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="29">
+      <c r="H44" s="13">
+        <v>297154</v>
+      </c>
+      <c r="I44" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="10">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25895212</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="D45" s="16">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25958297</v>
+      </c>
+      <c r="E45" s="17">
         <v>11077825</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F45" s="17">
         <v>12807985</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G45" s="17">
         <v>1775976</v>
       </c>
-      <c r="H39" s="12">
-        <v>233426</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27">
+      <c r="H45" s="17">
+        <v>296511</v>
+      </c>
+      <c r="I45" s="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C46" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="7">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25896068</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="D46" s="12">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>25959005</v>
+      </c>
+      <c r="E46" s="13">
         <v>11095328</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F46" s="13">
         <v>12844274</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G46" s="13">
         <v>1725329</v>
       </c>
-      <c r="H40" s="9">
-        <v>231137</v>
-      </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="31">
+      <c r="H46" s="13">
+        <v>294074</v>
+      </c>
+      <c r="I46" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="18">
         <v>2021</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="13">
-        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
-        <v>25981099</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="D47" s="20">
+        <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
+        <v>26044351</v>
+      </c>
+      <c r="E47" s="21">
         <v>11151759</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F47" s="21">
         <v>12921030</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G47" s="21">
         <v>1676364</v>
       </c>
-      <c r="H41" s="15">
-        <v>231946</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="33">
+      <c r="H47" s="21">
+        <v>295198</v>
+      </c>
+      <c r="I47" s="21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="22">
         <v>2020</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D48" s="24">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23529820</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E48" s="25">
         <v>11170850</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F48" s="25">
         <v>10688521</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G48" s="25">
         <v>1639775</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H48" s="25">
         <v>30674</v>
       </c>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="29">
+      <c r="I48" s="25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="14">
         <v>2020</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D49" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23487774</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E49" s="17">
         <v>11204168</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F49" s="17">
         <v>10644056</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G49" s="17">
         <v>1575252</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H49" s="17">
         <v>64298</v>
       </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="27">
+      <c r="I49" s="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2020</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D50" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23488107</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E50" s="13">
         <v>11247681</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F50" s="13">
         <v>10621344</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G50" s="13">
         <v>1517677</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H50" s="13">
         <v>101405</v>
       </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="29">
+      <c r="I50" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="14">
         <v>2020</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D51" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23474070</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E51" s="17">
         <v>11310991</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F51" s="17">
         <v>10601872</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G51" s="17">
         <v>1453480</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H51" s="17">
         <v>107727</v>
       </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="27">
+      <c r="I51" s="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2020</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D52" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23402920</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E52" s="13">
         <v>11329325</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F52" s="13">
         <v>10559468</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G52" s="13">
         <v>1402064</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H52" s="13">
         <v>112063</v>
       </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="29">
+      <c r="I52" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D53" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23311621</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E53" s="17">
         <v>11357571</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F53" s="17">
         <v>10488459</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G53" s="17">
         <v>1351731</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H53" s="17">
         <v>113860</v>
       </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27">
+      <c r="I53" s="17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D54" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23247823</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E54" s="13">
         <v>11382631</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F54" s="13">
         <v>10447880</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G54" s="13">
         <v>1301782</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H54" s="13">
         <v>115530</v>
       </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29">
+      <c r="I54" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D55" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23228220</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E55" s="17">
         <v>11439212</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F55" s="17">
         <v>10408082</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G55" s="17">
         <v>1263116</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H55" s="17">
         <v>117810</v>
       </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27">
+      <c r="I55" s="17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C56" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D56" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23142661</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E56" s="13">
         <v>11457880</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F56" s="13">
         <v>10350366</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G56" s="13">
         <v>1215112</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H56" s="13">
         <v>119303</v>
       </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="29">
+      <c r="I56" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C57" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D57" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23067456</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E57" s="17">
         <v>11471575</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F57" s="17">
         <v>10320906</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G57" s="17">
         <v>1154531</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H57" s="17">
         <v>120444</v>
       </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27">
+      <c r="I57" s="17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C58" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D58" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23019633</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E58" s="13">
         <v>11510509</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F58" s="13">
         <v>10268036</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G58" s="13">
         <v>1119991</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H58" s="13">
         <v>121097</v>
       </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="31">
+      <c r="I58" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="18">
         <v>2020</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C59" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D59" s="20">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23075557</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E59" s="21">
         <v>11555937</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F59" s="21">
         <v>10304142</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G59" s="21">
         <v>1094123</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H59" s="21">
         <v>121355</v>
       </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="33">
+      <c r="I59" s="21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="22">
         <v>2019</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C60" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D60" s="24">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23902945</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E60" s="25">
         <v>11605218</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F60" s="25">
         <v>11112477</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G60" s="25">
         <v>1063953</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H60" s="25">
         <v>121297</v>
       </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="29">
+      <c r="I60" s="25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14">
         <v>2019</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D61" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23871421</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E61" s="17">
         <v>11625549</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F61" s="17">
         <v>11081410</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G61" s="17">
         <v>1043009</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H61" s="17">
         <v>121453</v>
       </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="27">
+      <c r="I61" s="17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2019</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D62" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23922257</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E62" s="13">
         <v>11669471</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F62" s="13">
         <v>11111179</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G62" s="13">
         <v>1020155</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H62" s="13">
         <v>121452</v>
       </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="29">
+      <c r="I62" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="14">
         <v>2019</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C63" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D63" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>24020151</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E63" s="17">
         <v>11734185</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F63" s="17">
         <v>11171381</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G63" s="17">
         <v>997723</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H63" s="17">
         <v>116862</v>
       </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="27">
+      <c r="I63" s="17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2019</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C64" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D64" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>24061073</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E64" s="13">
         <v>11754585</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F64" s="13">
         <v>11206893</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G64" s="13">
         <v>980924</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H64" s="13">
         <v>118671</v>
       </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="29">
+      <c r="I64" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C65" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D65" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>24077993</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E65" s="17">
         <v>11819826</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F65" s="17">
         <v>11090671</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G65" s="17">
         <v>956842</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H65" s="17">
         <v>210654</v>
       </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="27">
+      <c r="I65" s="17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D66" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23518904</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E66" s="13">
         <v>11881577</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F66" s="13">
         <v>10641634</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G66" s="13">
         <v>949631</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H66" s="13">
         <v>46062</v>
       </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="29">
+      <c r="I66" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C67" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D67" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23309285</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E67" s="17">
         <v>11899739</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F67" s="17">
         <v>10433937</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G67" s="17">
         <v>929620</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H67" s="17">
         <v>45989</v>
       </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="27">
+      <c r="I67" s="17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D68" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23343766</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E68" s="13">
         <v>11986194</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F68" s="13">
         <v>10407601</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G68" s="13">
         <v>904013</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H68" s="13">
         <v>45958</v>
       </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="29">
+      <c r="I68" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C69" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D69" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23543976</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E69" s="17">
         <v>12125550</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F69" s="17">
         <v>10489614</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G69" s="17">
         <v>882775</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H69" s="17">
         <v>46037</v>
       </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="27">
+      <c r="I69" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C70" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D70" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23678922</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E70" s="13">
         <v>12293229</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F70" s="13">
         <v>10481168</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G70" s="13">
         <v>858672</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H70" s="13">
         <v>45853</v>
       </c>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="31">
+      <c r="I70" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="18">
         <v>2019</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C71" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D71" s="20">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>24223401</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E71" s="21">
         <v>12528433</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F71" s="21">
         <v>10815488</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G71" s="21">
         <v>833616</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H71" s="21">
         <v>45864</v>
       </c>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="27">
+      <c r="I71" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2018</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C72" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D72" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23969110</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E72" s="13">
         <v>12613692</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F72" s="13">
         <v>10505948</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G72" s="13">
         <v>802982</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H72" s="13">
         <v>46488</v>
       </c>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="29">
+      <c r="I72" s="13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="14">
         <v>2018</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D73" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23989802</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E73" s="17">
         <v>12679921</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F73" s="17">
         <v>10383817</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G73" s="17">
         <v>779122</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H73" s="17">
         <v>146942</v>
       </c>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="27">
+      <c r="I73" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2018</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C74" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D74" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23814833</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E74" s="13">
         <v>12792556</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F74" s="13">
         <v>10128910</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G74" s="13">
         <v>745844</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H74" s="13">
         <v>147523</v>
       </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="29">
+      <c r="I74" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C75" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D75" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23925971</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E75" s="17">
         <v>12977698</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F75" s="17">
         <v>10073714</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G75" s="17">
         <v>726457</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H75" s="17">
         <v>148102</v>
       </c>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="27">
+      <c r="I75" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2018</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D76" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23966123</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E76" s="13">
         <v>13129065</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F76" s="13">
         <v>9983020</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G76" s="13">
         <v>706001</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H76" s="13">
         <v>148037</v>
       </c>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="29">
+      <c r="I76" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C77" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D77" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23863900</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E77" s="17">
         <v>13189974</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F77" s="17">
         <v>9851073</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G77" s="17">
         <v>675960</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H77" s="17">
         <v>146893</v>
       </c>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="27">
+      <c r="I77" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C78" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D78" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23900371</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E78" s="13">
         <v>13244655</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F78" s="13">
         <v>9823619</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G78" s="13">
         <v>662360</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H78" s="13">
         <v>169737</v>
       </c>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="29">
+      <c r="I78" s="13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C79" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D79" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23833732</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E79" s="17">
         <v>13285605</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F79" s="17">
         <v>9717716</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G79" s="17">
         <v>652991</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H79" s="17">
         <v>177420</v>
       </c>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="27">
+      <c r="I79" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C80" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D80" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23717405</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E80" s="13">
         <v>13277815</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F80" s="13">
         <v>9627751</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G80" s="13">
         <v>634276</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H80" s="13">
         <v>177563</v>
       </c>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="29">
+      <c r="I80" s="13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D81" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23393076</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E81" s="17">
         <v>13045803</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F81" s="17">
         <v>9550126</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G81" s="17">
         <v>618715</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H81" s="17">
         <v>178432</v>
       </c>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="27">
+      <c r="I81" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C82" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D82" s="12">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23250320</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E82" s="13">
         <v>13057272</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F82" s="13">
         <v>9415805</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G82" s="13">
         <v>598438</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H82" s="13">
         <v>178805</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="29">
+      <c r="I82" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D83" s="16">
         <f>SUM(Tabla3[[#This Row],[Servicio fijo por satélite]:[Sin información de tecnología]])</f>
         <v>23303431</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E83" s="17">
         <v>13181315</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F83" s="17">
         <v>9357746</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G83" s="17">
         <v>584710</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H83" s="17">
         <v>179660</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="19" t="s">
+      <c r="I83" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B84" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B85" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B86" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" s="3"/>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H87" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:H4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
